--- a/plots.xlsx
+++ b/plots.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>replication</t>
   </si>
@@ -46,6 +46,9 @@
     <t>latency(ms)</t>
   </si>
   <si>
+    <t>usl</t>
+  </si>
+  <si>
     <t>rf9</t>
   </si>
 </sst>
@@ -53,7 +56,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -61,17 +64,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -92,17 +106,26 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -186,11 +209,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="635999463"/>
-        <c:axId val="379891174"/>
+        <c:axId val="761527854"/>
+        <c:axId val="954256621"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="635999463"/>
+        <c:axId val="761527854"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -242,10 +265,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379891174"/>
+        <c:crossAx val="954256621"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="379891174"/>
+        <c:axId val="954256621"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -321,7 +344,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="635999463"/>
+        <c:crossAx val="761527854"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -422,11 +445,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="406175669"/>
-        <c:axId val="536057484"/>
+        <c:axId val="743027675"/>
+        <c:axId val="597350901"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="406175669"/>
+        <c:axId val="743027675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0"/>
@@ -479,10 +502,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="536057484"/>
+        <c:crossAx val="597350901"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="536057484"/>
+        <c:axId val="597350901"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -558,7 +581,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="406175669"/>
+        <c:crossAx val="743027675"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -659,11 +682,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="655213855"/>
-        <c:axId val="1055764477"/>
+        <c:axId val="232795998"/>
+        <c:axId val="1251777371"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="655213855"/>
+        <c:axId val="232795998"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -716,10 +739,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1055764477"/>
+        <c:crossAx val="1251777371"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1055764477"/>
+        <c:axId val="1251777371"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -795,7 +818,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="655213855"/>
+        <c:crossAx val="232795998"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -896,11 +919,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="159229963"/>
-        <c:axId val="796569688"/>
+        <c:axId val="1722976775"/>
+        <c:axId val="1683065230"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="159229963"/>
+        <c:axId val="1722976775"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="7.0"/>
@@ -953,10 +976,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="796569688"/>
+        <c:crossAx val="1683065230"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="796569688"/>
+        <c:axId val="1683065230"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -1032,7 +1055,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159229963"/>
+        <c:crossAx val="1722976775"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1061,34 +1084,6 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>sysbench read</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1109,7 +1104,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1124,11 +1130,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1567594583"/>
-        <c:axId val="1246472010"/>
+        <c:axId val="144668359"/>
+        <c:axId val="2121669720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1567594583"/>
+        <c:axId val="144668359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,7 +1147,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1149,7 +1155,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1171,7 +1177,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" sz="1800">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1180,10 +1186,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1246472010"/>
+        <c:crossAx val="2121669720"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1246472010"/>
+        <c:axId val="2121669720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1216,7 +1222,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" sz="2000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1224,7 +1230,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" sz="2000">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1249,7 +1255,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" sz="1800">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1258,7 +1264,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1567594583"/>
+        <c:crossAx val="144668359"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1287,45 +1293,8 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>rf1, rf3, rf5 и rf7</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10808080808080808"/>
-          <c:y val="0.21854334226988378"/>
-          <c:w val="0.8542424242424242"/>
-          <c:h val="0.6514298480786417"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:lineChart>
         <c:ser>
           <c:idx val="0"/>
@@ -1343,7 +1312,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1374,7 +1354,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="EA4335"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="EA4335"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1405,7 +1396,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FBBC04"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="FBBC04"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1436,7 +1438,18 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="34A853"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="34A853"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1451,11 +1464,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="11254113"/>
-        <c:axId val="2133688263"/>
+        <c:axId val="1645605849"/>
+        <c:axId val="2099021102"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="11254113"/>
+        <c:axId val="1645605849"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1468,7 +1481,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1476,7 +1489,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1498,7 +1511,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1507,10 +1520,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2133688263"/>
+        <c:crossAx val="2099021102"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2133688263"/>
+        <c:axId val="2099021102"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,7 +1556,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                  <a:defRPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1551,233 +1564,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>trs/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="11254113"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
-              <a:t>sysbench read</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>list1!$D$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>list1!$B$3:$B$7</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>list1!$D$3:$D$7</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="1837852527"/>
-        <c:axId val="549600669"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1837852527"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>replication</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="549600669"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="549600669"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
+                  <a:rPr b="0" sz="1800">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1802,7 +1589,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0">
+              <a:defRPr b="0" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1811,7 +1598,216 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1837852527"/>
+        <c:crossAx val="1645605849"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list1!$D$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+              <a:ln cmpd="sng">
+                <a:solidFill>
+                  <a:srgbClr val="4285F4"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>list1!$B$3:$B$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list1!$D$3:$D$7</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="718338178"/>
+        <c:axId val="1019762583"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="718338178"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>replication</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" sz="1800">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1019762583"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1019762583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="2000">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>trans/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0" sz="2000">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="718338178"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1966,12 +1962,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4714875" cy="3552825"/>
+    <xdr:ext cx="4810125" cy="3552825"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 6" title="Диаграмма"/>
@@ -2221,335 +2217,387 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="U1" s="1"/>
+    </row>
     <row r="2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>1154.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>8.57</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="3">
         <v>1.0</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="3">
         <v>8.57</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="N3" s="2">
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="M3" s="3">
         <v>1.0</v>
       </c>
-      <c r="O3" s="2">
+      <c r="N3" s="3">
         <v>427.0</v>
       </c>
-      <c r="P3" s="2">
+      <c r="O3" s="3">
         <v>2.33</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:P11" si="1">(545.9*M3)/(1+0.13*(M3-1)+0.00046*M3*(M3-1))</f>
+        <v>545.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>1330.0</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>7.48</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="3">
         <v>2.0</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="3">
         <v>8.63</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="N4" s="2">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="M4" s="3">
         <v>2.0</v>
       </c>
-      <c r="O4" s="2">
+      <c r="N4" s="3">
         <v>779.0</v>
       </c>
-      <c r="P4" s="2">
+      <c r="O4" s="3">
         <v>2.56</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="1"/>
+        <v>965.4086938</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>1450.0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>6.78</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>3.0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>8.71</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>7.48</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="N5" s="2">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="M5" s="3">
         <v>4.0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="N5" s="3">
         <v>1470.0</v>
       </c>
-      <c r="P5" s="2">
+      <c r="O5" s="3">
         <v>2.71</v>
       </c>
+      <c r="P5" s="3">
+        <f t="shared" si="1"/>
+        <v>1564.721394</v>
+      </c>
+      <c r="T5" s="5"/>
     </row>
     <row r="6">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="3">
         <v>1536.0</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>6.44</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>4.0</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>9.45</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>9.29</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="N6" s="2">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="M6" s="3">
         <v>8.0</v>
       </c>
-      <c r="O6" s="2">
+      <c r="N6" s="3">
         <v>2321.0</v>
       </c>
-      <c r="P6" s="2">
+      <c r="O6" s="3">
         <v>3.44</v>
       </c>
+      <c r="P6" s="3">
+        <f t="shared" si="1"/>
+        <v>2256.064801</v>
+      </c>
+      <c r="T6" s="6"/>
     </row>
     <row r="7">
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
         <v>1963.0</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>4.99</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>5.0</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>9.65</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>8.15</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>6.78</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="N7" s="2">
+      <c r="K7" s="4"/>
+      <c r="M7" s="3">
         <v>16.0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="N7" s="3">
         <v>2869.0</v>
       </c>
-      <c r="P7" s="2">
+      <c r="O7" s="3">
         <v>5.81</v>
       </c>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>2854.006012</v>
+      </c>
+      <c r="T7" s="6"/>
     </row>
     <row r="8">
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>6.0</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>9.65</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>8.61</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>7.32</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="N8" s="2">
+      <c r="K8" s="4"/>
+      <c r="M8" s="3">
         <v>32.0</v>
       </c>
-      <c r="O8" s="2">
+      <c r="N8" s="3">
         <v>3563.0</v>
       </c>
-      <c r="P8" s="2">
+      <c r="O8" s="3">
         <v>9.02</v>
       </c>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
+        <v>3184.065093</v>
+      </c>
+      <c r="T8" s="6"/>
     </row>
     <row r="9">
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>7.0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="2">
+      <c r="H9" s="4"/>
+      <c r="I9" s="3">
         <v>9.02</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>8.23</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="3">
         <v>6.44</v>
       </c>
-      <c r="N9" s="2">
+      <c r="M9" s="3">
         <v>64.0</v>
       </c>
-      <c r="O9" s="2">
+      <c r="N9" s="3">
         <v>3867.0</v>
       </c>
-      <c r="P9" s="2">
+      <c r="O9" s="3">
         <v>16.8</v>
       </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>3163.285262</v>
+      </c>
+      <c r="T9" s="6"/>
     </row>
     <row r="10">
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>8.0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="2">
+      <c r="H10" s="4"/>
+      <c r="I10" s="3">
         <v>8.76</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>7.6</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="3">
         <v>6.39</v>
       </c>
-      <c r="N10" s="2">
+      <c r="M10" s="3">
         <v>128.0</v>
       </c>
-      <c r="O10" s="2">
+      <c r="N10" s="3">
         <v>5235.0</v>
       </c>
-      <c r="P10" s="2">
+      <c r="O10" s="3">
         <v>25.5</v>
       </c>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>2796.377106</v>
+      </c>
+      <c r="T10" s="6"/>
     </row>
     <row r="11">
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>9.0</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="2">
+      <c r="H11" s="4"/>
+      <c r="I11" s="3">
         <v>8.22</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>7.28</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="3">
         <v>4.52</v>
       </c>
-      <c r="N11" s="2">
+      <c r="M11" s="3">
         <v>256.0</v>
       </c>
-      <c r="O11" s="2">
+      <c r="N11" s="3">
         <v>3562.0</v>
       </c>
-      <c r="P11" s="2">
+      <c r="O11" s="3">
         <v>76.2</v>
       </c>
+      <c r="P11" s="3">
+        <f t="shared" si="1"/>
+        <v>2177.516563</v>
+      </c>
+      <c r="T11" s="6"/>
     </row>
     <row r="12">
-      <c r="G12" s="2">
+      <c r="G12" s="3">
         <v>10.0</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="2">
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3">
         <v>7.0</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="3">
         <v>5.85</v>
       </c>
+      <c r="T12" s="6"/>
     </row>
     <row r="13">
-      <c r="G13" s="2">
+      <c r="G13" s="3">
         <v>11.0</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
         <v>6.13</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="3">
         <v>5.19</v>
       </c>
+      <c r="T13" s="6"/>
     </row>
     <row r="14">
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>12.0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="3">
         <v>4.91</v>
       </c>
+      <c r="T14" s="6"/>
     </row>
     <row r="15">
-      <c r="G15" s="2">
+      <c r="G15" s="3">
         <v>13.0</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="2">
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="3">
         <v>5.42</v>
       </c>
     </row>

--- a/plots.xlsx
+++ b/plots.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>replication</t>
   </si>
@@ -46,9 +46,6 @@
     <t>latency(ms)</t>
   </si>
   <si>
-    <t>usl</t>
-  </si>
-  <si>
     <t>rf9</t>
   </si>
 </sst>
@@ -56,7 +53,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -64,28 +61,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -106,26 +92,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -209,11 +186,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="761527854"/>
-        <c:axId val="954256621"/>
+        <c:axId val="635999463"/>
+        <c:axId val="379891174"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="761527854"/>
+        <c:axId val="635999463"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -265,10 +242,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="954256621"/>
+        <c:crossAx val="379891174"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="954256621"/>
+        <c:axId val="379891174"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -344,7 +321,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="761527854"/>
+        <c:crossAx val="635999463"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -445,11 +422,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="743027675"/>
-        <c:axId val="597350901"/>
+        <c:axId val="406175669"/>
+        <c:axId val="536057484"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="743027675"/>
+        <c:axId val="406175669"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="3.0"/>
@@ -502,10 +479,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="597350901"/>
+        <c:crossAx val="536057484"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="597350901"/>
+        <c:axId val="536057484"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -581,7 +558,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="743027675"/>
+        <c:crossAx val="406175669"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -682,11 +659,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="232795998"/>
-        <c:axId val="1251777371"/>
+        <c:axId val="655213855"/>
+        <c:axId val="1055764477"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232795998"/>
+        <c:axId val="655213855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="5.0"/>
@@ -739,10 +716,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1251777371"/>
+        <c:crossAx val="1055764477"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1251777371"/>
+        <c:axId val="1055764477"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -818,7 +795,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="232795998"/>
+        <c:crossAx val="655213855"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -919,11 +896,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1722976775"/>
-        <c:axId val="1683065230"/>
+        <c:axId val="159229963"/>
+        <c:axId val="796569688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1722976775"/>
+        <c:axId val="159229963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="7.0"/>
@@ -976,10 +953,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1683065230"/>
+        <c:crossAx val="796569688"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1683065230"/>
+        <c:axId val="796569688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12.0"/>
@@ -1055,7 +1032,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1722976775"/>
+        <c:crossAx val="159229963"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1084,6 +1061,34 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>sysbench read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -1104,18 +1109,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="4285F4"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1130,11 +1124,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="144668359"/>
-        <c:axId val="2121669720"/>
+        <c:axId val="1567594583"/>
+        <c:axId val="1246472010"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144668359"/>
+        <c:axId val="1567594583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1147,7 +1141,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="1800">
+                  <a:defRPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1155,7 +1149,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1800">
+                  <a:rPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1177,7 +1171,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1800">
+              <a:defRPr b="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1186,10 +1180,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121669720"/>
+        <c:crossAx val="1246472010"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121669720"/>
+        <c:axId val="1246472010"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1222,7 +1216,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="2000">
+                  <a:defRPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1230,7 +1224,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="2000">
+                  <a:rPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1255,7 +1249,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1800">
+              <a:defRPr b="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1264,7 +1258,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="144668359"/>
+        <c:crossAx val="1567594583"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1293,8 +1287,45 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>rf1, rf3, rf5 и rf7</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10808080808080808"/>
+          <c:y val="0.21854334226988378"/>
+          <c:w val="0.8542424242424242"/>
+          <c:h val="0.6514298480786417"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:ser>
           <c:idx val="0"/>
@@ -1312,18 +1343,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="4285F4"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1354,18 +1374,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="EA4335"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="EA4335"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1396,18 +1405,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FBBC04"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="FBBC04"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1438,18 +1436,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="34A853"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="34A853"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:strRef>
@@ -1464,11 +1451,11 @@
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="1645605849"/>
-        <c:axId val="2099021102"/>
+        <c:axId val="11254113"/>
+        <c:axId val="2133688263"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1645605849"/>
+        <c:axId val="11254113"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1481,7 +1468,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="1800">
+                  <a:defRPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1489,7 +1476,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1800">
+                  <a:rPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1511,7 +1498,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1400">
+              <a:defRPr b="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1520,10 +1507,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2099021102"/>
+        <c:crossAx val="2133688263"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099021102"/>
+        <c:axId val="2133688263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1556,7 +1543,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="1800">
+                  <a:defRPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1564,7 +1551,233 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1800">
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>trs/sec</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="11254113"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>sysbench read</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>list1!$D$2</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="4285F4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>list1!$B$3:$B$7</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>list1!$D$3:$D$7</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1837852527"/>
+        <c:axId val="549600669"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1837852527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>replication</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549600669"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549600669"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
                     </a:solidFill>
@@ -1589,7 +1802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1400">
+              <a:defRPr b="0">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
@@ -1598,216 +1811,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1645605849"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>list1!$D$2</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln cmpd="sng">
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="4285F4"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="4285F4"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>list1!$B$3:$B$7</c:f>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>list1!$D$3:$D$7</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="718338178"/>
-        <c:axId val="1019762583"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="718338178"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="2000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="2000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>replication</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="1800">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1019762583"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1019762583"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0" sz="2000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="2000">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t>trans/sec</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0" sz="2000">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="718338178"/>
+        <c:crossAx val="1837852527"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1962,12 +1966,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4810125" cy="3552825"/>
+    <xdr:ext cx="4714875" cy="3552825"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 6" title="Диаграмма"/>
@@ -2217,387 +2221,335 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1">
-      <c r="U1" s="1"/>
-    </row>
     <row r="2">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1154.0</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>8.57</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>1.0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>8.57</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="M3" s="3">
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="N3" s="2">
         <v>1.0</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="2">
         <v>427.0</v>
       </c>
-      <c r="O3" s="3">
+      <c r="P3" s="2">
         <v>2.33</v>
-      </c>
-      <c r="P3" s="3">
-        <f t="shared" ref="P3:P11" si="1">(545.9*M3)/(1+0.13*(M3-1)+0.00046*M3*(M3-1))</f>
-        <v>545.9</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1330.0</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>7.48</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>2.0</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>8.63</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="M4" s="3">
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="2">
         <v>2.0</v>
       </c>
-      <c r="N4" s="3">
+      <c r="O4" s="2">
         <v>779.0</v>
       </c>
-      <c r="O4" s="3">
+      <c r="P4" s="2">
         <v>2.56</v>
-      </c>
-      <c r="P4" s="3">
-        <f t="shared" si="1"/>
-        <v>965.4086938</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1450.0</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>6.78</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>3.0</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>8.71</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>7.48</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="M5" s="3">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="N5" s="2">
         <v>4.0</v>
       </c>
-      <c r="N5" s="3">
+      <c r="O5" s="2">
         <v>1470.0</v>
       </c>
-      <c r="O5" s="3">
+      <c r="P5" s="2">
         <v>2.71</v>
       </c>
-      <c r="P5" s="3">
-        <f t="shared" si="1"/>
-        <v>1564.721394</v>
-      </c>
-      <c r="T5" s="5"/>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1536.0</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>6.44</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>4.0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>9.45</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>9.29</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="M6" s="3">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="N6" s="2">
         <v>8.0</v>
       </c>
-      <c r="N6" s="3">
+      <c r="O6" s="2">
         <v>2321.0</v>
       </c>
-      <c r="O6" s="3">
+      <c r="P6" s="2">
         <v>3.44</v>
       </c>
-      <c r="P6" s="3">
-        <f t="shared" si="1"/>
-        <v>2256.064801</v>
-      </c>
-      <c r="T6" s="6"/>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
         <v>1963.0</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>4.99</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>5.0</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>9.65</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>8.15</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>6.78</v>
       </c>
-      <c r="K7" s="4"/>
-      <c r="M7" s="3">
+      <c r="K7" s="3"/>
+      <c r="N7" s="2">
         <v>16.0</v>
       </c>
-      <c r="N7" s="3">
+      <c r="O7" s="2">
         <v>2869.0</v>
       </c>
-      <c r="O7" s="3">
+      <c r="P7" s="2">
         <v>5.81</v>
       </c>
-      <c r="P7" s="3">
-        <f t="shared" si="1"/>
-        <v>2854.006012</v>
-      </c>
-      <c r="T7" s="6"/>
     </row>
     <row r="8">
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>6.0</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>9.65</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>8.61</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>7.32</v>
       </c>
-      <c r="K8" s="4"/>
-      <c r="M8" s="3">
+      <c r="K8" s="3"/>
+      <c r="N8" s="2">
         <v>32.0</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="2">
         <v>3563.0</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="2">
         <v>9.02</v>
       </c>
-      <c r="P8" s="3">
-        <f t="shared" si="1"/>
-        <v>3184.065093</v>
-      </c>
-      <c r="T8" s="6"/>
     </row>
     <row r="9">
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>7.0</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="3">
+      <c r="H9" s="3"/>
+      <c r="I9" s="2">
         <v>9.02</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>8.23</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>6.44</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="2">
         <v>64.0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="2">
         <v>3867.0</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="2">
         <v>16.8</v>
       </c>
-      <c r="P9" s="3">
-        <f t="shared" si="1"/>
-        <v>3163.285262</v>
-      </c>
-      <c r="T9" s="6"/>
     </row>
     <row r="10">
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>8.0</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="3">
+      <c r="H10" s="3"/>
+      <c r="I10" s="2">
         <v>8.76</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>7.6</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>6.39</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="2">
         <v>128.0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="2">
         <v>5235.0</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="2">
         <v>25.5</v>
       </c>
-      <c r="P10" s="3">
-        <f t="shared" si="1"/>
-        <v>2796.377106</v>
-      </c>
-      <c r="T10" s="6"/>
     </row>
     <row r="11">
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>9.0</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="3">
+      <c r="H11" s="3"/>
+      <c r="I11" s="2">
         <v>8.22</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>7.28</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>4.52</v>
       </c>
-      <c r="M11" s="3">
+      <c r="N11" s="2">
         <v>256.0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="O11" s="2">
         <v>3562.0</v>
       </c>
-      <c r="O11" s="3">
+      <c r="P11" s="2">
         <v>76.2</v>
       </c>
-      <c r="P11" s="3">
-        <f t="shared" si="1"/>
-        <v>2177.516563</v>
-      </c>
-      <c r="T11" s="6"/>
     </row>
     <row r="12">
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>10.0</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="3">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="2">
         <v>7.0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>5.85</v>
       </c>
-      <c r="T12" s="6"/>
     </row>
     <row r="13">
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>11.0</v>
       </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="3">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="2">
         <v>6.13</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>5.19</v>
       </c>
-      <c r="T13" s="6"/>
     </row>
     <row r="14">
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>12.0</v>
       </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="3">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="2">
         <v>4.91</v>
       </c>
-      <c r="T14" s="6"/>
     </row>
     <row r="15">
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>13.0</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="3">
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="2">
         <v>5.42</v>
       </c>
     </row>
